--- a/wp_product.xlsx
+++ b/wp_product.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\01-WIN10-TMP\Desktop\python_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36550CAD-D818-4FEE-9CBD-EEB5286D3423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Products" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Pages" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Products" sheetId="1" r:id="rId1"/>
+    <sheet name="Pages" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,21 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đồng Hồ Cuena 6 Kim Dây Da</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Cuena 6 Kim Dây Da</t>
   </si>
   <si>
     <t xml:space="preserve">[ Hàng Quốc Tế Cao Cấp Xách Tay ]
@@ -63,15 +68,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.donghogiarehcm.com/wp-content/uploads/2019/09/10597166184_1977546238-300x300.jpg
+    <t>https://www.donghogiarehcm.com/wp-content/uploads/2019/09/10597166184_1977546238-300x300.jpg
 https://www.donghogiarehcm.com/wp-content/uploads/2019/09/10597157474_1977546238-300x300.jpg
 https://www.donghogiarehcm.com/wp-content/uploads/2019/09/10597157067_1977546238-300x300.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Đồng hồ SKMEI-1370 Dual Time Chính Hãng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ Hàng Quốc Tế Cao Cấp Xách Tay ]
+    <t>Đồng hồ SKMEI-1370 Dual Time Chính Hãng</t>
+  </si>
+  <si>
+    <t>[ Hàng Quốc Tế Cao Cấp Xách Tay ]
 Đồng hồ Skmei 1899 chính hãng.
 Máy Pin Nhật bền bỉ, chính xác.
 Chiếu sáng điện lân quang EL Light
@@ -85,66 +90,33 @@
 #ThiTruongGiaReVN #ShopDongHoNamNu #HopTacKinhDoanh #HangNuocNgoai #DongHoThoiTrang</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.donghogiarehcm.com/wp-content/uploads/2019/10/dong-ho-skmei-1370-300x300.jpg
+    <t>https://www.donghogiarehcm.com/wp-content/uploads/2019/10/dong-ho-skmei-1370-300x300.jpg
 https://www.donghogiarehcm.com/wp-content/uploads/2019/10/dong-ho-skmei-1370-ha-noi-300x300.jpg
 https://www.donghogiarehcm.com/wp-content/uploads/2019/10/dong-ho-skmei-1370-chinh-hang-300x300.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Page Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trình Duyệt Blockchain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2056902877684409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAASp3DPmNo8BAEnUL6nN5DM8ZBVa7iLcGw4ux4joVNtHlqLvQ3Ty9LBXGKyR6ju6hBDSJ3SYmRA01W6ccPswgpluzujCHApv2qhfjZCQlqDSuKkZC2fdnGEvSZCIEST57cxD577ZCTbvFZBX2Vq7dXx2gyzQIwYZAjLPJBjG0G5vjBTHSuFyCv3GN9ahiPZBnXQ4TlzP4JKiUgZDZD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chặn Quảng Cáo Youtube </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1322105514589118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAASp3DPmNo8BAFKKlZAaQzK8nfVWk1CyMhQ1Ga8nALNoxavm4T6xMGBTYKUSLwYmN0ic3Nu91NNpHJUBB1rkfBe9ifzPoXPlfe2ZAMiBZCsfNoWk0ykEjZAo2253Wwao0Kpn7t5VsvK5iqZBNEoXexiHzGW0hEAYMFpQnZCU7ZB6vZAY0jAGUnTO60ctfX8OMuGKji1My5z68AZDZD</t>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>EAASp3DPmNo8BAJhbf7ZAemDWXSjh2X1zB4sOZANrvBQck3ZCBebvUvcCij76EbNnZBBYwwEKCOtFoFZBJKp8IgPBFrbIuU4X3GXpPyccpFwJoGNoG1VNZBDJBj50JtyEAkp0W3tI9gvgJ7XXppIC9v1VRGGK9m6ciLbXgZAHwTGKkqpCNiZCEPXM2jicvC94Fx6HCBf33WIKEQZDZD</t>
+  </si>
+  <si>
+    <t>EAASp3DPmNo8BAFmK6T7hQR1ZCxs2tNrZBSNgZAxW7KtQv0P9ZAKNsNg7g2ZA7POwCaHeNwhQQBzOZBaSgAFwTZCelDlOiZA5QcZCKDzJMcj77g2Br8jXZBcN4NGLnoDB5Cn3MCLtb1e5r74yLnszghqYATbwFfTZAZBUahYjbLCSawvZCkViytKZBLeJRZAN1YpS3uTGv7rgra94YkofgZDZD</t>
+  </si>
+  <si>
+    <t>EAASp3DPmNo8BAIiWdhHZAP9C3B0m5iFkpbn7LbDZCDfXUFJ1LtRWEJfO9KLZCkpUPDje9Lse99P0ZAKSkQBW1aWqoZAEa2daaP0gD5ejBoXwMh0vWeWpXkAiOkJNr78HZCNUyPPnH2YKUyMK1pF5xbzeyZBDhIRuTxsMUJZChtVAd5RKQbgKwGZAwtEAQUsvxpJBPlXinBEGOMAZDZD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -202,7 +174,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -267,14 +239,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
@@ -290,133 +262,67 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="17">
+    <cellStyle name="Accent 1 16" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Accent 15" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Accent 2 17" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Accent 3 18" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Bad 12" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Error 14" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Footnote 8" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Good 10" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Heading 1 4" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Heading 2 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Heading 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Neutral 11" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 1 16" xfId="20"/>
-    <cellStyle name="Accent 15" xfId="21"/>
-    <cellStyle name="Accent 2 17" xfId="22"/>
-    <cellStyle name="Accent 3 18" xfId="23"/>
-    <cellStyle name="Bad 12" xfId="24"/>
-    <cellStyle name="Error 14" xfId="25"/>
-    <cellStyle name="Footnote 8" xfId="26"/>
-    <cellStyle name="Good 10" xfId="27"/>
-    <cellStyle name="Heading 1 4" xfId="28"/>
-    <cellStyle name="Heading 2 5" xfId="29"/>
-    <cellStyle name="Heading 3" xfId="30"/>
-    <cellStyle name="Neutral 11" xfId="31"/>
-    <cellStyle name="Note 7" xfId="32"/>
-    <cellStyle name="Status 9" xfId="33"/>
-    <cellStyle name="Text 6" xfId="34"/>
-    <cellStyle name="Warning 13" xfId="35"/>
+    <cellStyle name="Note 7" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Status 9" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Text 6" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Warning 13" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -475,32 +381,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="86.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="93.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="86.5703125" customWidth="1"/>
+    <col min="4" max="4" width="93.28515625" customWidth="1"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +728,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="486.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -528,11 +742,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="177.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:4" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -543,10 +757,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -554,72 +767,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="229.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="229.42578125" customWidth="1"/>
+    <col min="3" max="1023" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
